--- a/SF-36/Practice SF-36 data.xlsx
+++ b/SF-36/Practice SF-36 data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MatthiasQ.MATTQ\Desktop\R Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/Consulting/SF-36/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DC3B79-C7D3-4423-8FA4-FEB85AFE3B14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{75DC3B79-C7D3-4423-8FA4-FEB85AFE3B14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A9609BC9-C69A-4FF1-B017-9740AE76CC29}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Practice SF-36 data" sheetId="1" r:id="rId1"/>
@@ -1349,7 +1349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BQ52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -7093,11 +7093,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="110.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/SF-36/Practice SF-36 data.xlsx
+++ b/SF-36/Practice SF-36 data.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/Consulting/SF-36/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/CSU Classes/Consulting/SF-36/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{75DC3B79-C7D3-4423-8FA4-FEB85AFE3B14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A9609BC9-C69A-4FF1-B017-9740AE76CC29}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{75DC3B79-C7D3-4423-8FA4-FEB85AFE3B14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{439A5D17-7BEA-4D08-9F8D-82F881DEA4CA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Practice SF-36 data" sheetId="1" r:id="rId1"/>
     <sheet name="Example and Ranges" sheetId="2" r:id="rId2"/>
+    <sheet name="Testing" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="162">
   <si>
     <t>Identifier</t>
   </si>
@@ -1353,9 +1354,9 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1564,7 +1565,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>111</v>
       </c>
@@ -1659,7 +1660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -1772,7 +1773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>113</v>
       </c>
@@ -1885,7 +1886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -1995,7 +1996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>115</v>
       </c>
@@ -2108,7 +2109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>116</v>
       </c>
@@ -2221,7 +2222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>117</v>
       </c>
@@ -2331,7 +2332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>118</v>
       </c>
@@ -2441,7 +2442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>119</v>
       </c>
@@ -2554,7 +2555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>120</v>
       </c>
@@ -2661,7 +2662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>121</v>
       </c>
@@ -2765,7 +2766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>122</v>
       </c>
@@ -2878,7 +2879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>123</v>
       </c>
@@ -2985,7 +2986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>124</v>
       </c>
@@ -3098,7 +3099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>125</v>
       </c>
@@ -3202,7 +3203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>126</v>
       </c>
@@ -3315,7 +3316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>127</v>
       </c>
@@ -3425,7 +3426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>128</v>
       </c>
@@ -3538,7 +3539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>129</v>
       </c>
@@ -3633,7 +3634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>130</v>
       </c>
@@ -3746,7 +3747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>131</v>
       </c>
@@ -3859,7 +3860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>132</v>
       </c>
@@ -3963,7 +3964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>133</v>
       </c>
@@ -4076,7 +4077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>134</v>
       </c>
@@ -4177,7 +4178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>135</v>
       </c>
@@ -4284,7 +4285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>136</v>
       </c>
@@ -4391,7 +4392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>137</v>
       </c>
@@ -4495,7 +4496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>138</v>
       </c>
@@ -4599,7 +4600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>139</v>
       </c>
@@ -4703,7 +4704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>140</v>
       </c>
@@ -4810,7 +4811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>141</v>
       </c>
@@ -4920,7 +4921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>142</v>
       </c>
@@ -5015,7 +5016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>143</v>
       </c>
@@ -5125,7 +5126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>144</v>
       </c>
@@ -5223,7 +5224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>145</v>
       </c>
@@ -5330,7 +5331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>146</v>
       </c>
@@ -5431,7 +5432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>147</v>
       </c>
@@ -5541,7 +5542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>148</v>
       </c>
@@ -5645,7 +5646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>149</v>
       </c>
@@ -5752,7 +5753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>150</v>
       </c>
@@ -5853,7 +5854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>151</v>
       </c>
@@ -5963,7 +5964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>152</v>
       </c>
@@ -6067,7 +6068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>153</v>
       </c>
@@ -6180,7 +6181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>154</v>
       </c>
@@ -6293,7 +6294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>155</v>
       </c>
@@ -6406,7 +6407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>156</v>
       </c>
@@ -6519,7 +6520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>157</v>
       </c>
@@ -6632,7 +6633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>158</v>
       </c>
@@ -6745,7 +6746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>159</v>
       </c>
@@ -6858,7 +6859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>160</v>
       </c>
@@ -6971,7 +6972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>161</v>
       </c>
@@ -7093,16 +7094,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="110.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="110.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7122,7 +7123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -7142,7 +7143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -7162,7 +7163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -7182,7 +7183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -7202,7 +7203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -7222,7 +7223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -7242,7 +7243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -7262,7 +7263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -7282,7 +7283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -7302,7 +7303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -7322,7 +7323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -7342,7 +7343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -7362,7 +7363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -7382,7 +7383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -7402,7 +7403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -7422,7 +7423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -7442,7 +7443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -7462,7 +7463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -7482,7 +7483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -7502,7 +7503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -7522,7 +7523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -7542,7 +7543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -7562,7 +7563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -7582,7 +7583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -7602,7 +7603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -7622,7 +7623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -7642,7 +7643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -7662,7 +7663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -7682,7 +7683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -7702,7 +7703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -7722,7 +7723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -7742,7 +7743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -7762,7 +7763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -7782,7 +7783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -7802,7 +7803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -7822,7 +7823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -7840,6 +7841,869 @@
       </c>
       <c r="F37">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38279A1-2219-43F5-8F1B-6B8DDF6309E5}">
+  <dimension ref="A1:E52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>9.33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>10.67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>13.33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>10.67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>5</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/SF-36/Practice SF-36 data.xlsx
+++ b/SF-36/Practice SF-36 data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/CSU Classes/Consulting/SF-36/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{75DC3B79-C7D3-4423-8FA4-FEB85AFE3B14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{439A5D17-7BEA-4D08-9F8D-82F881DEA4CA}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{75DC3B79-C7D3-4423-8FA4-FEB85AFE3B14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B84C621C-5D54-44E7-822D-8C1D316D315F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Practice SF-36 data" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="162">
   <si>
     <t>Identifier</t>
   </si>
@@ -1350,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BQ52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7095,7 +7095,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7850,860 +7850,1019 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38279A1-2219-43F5-8F1B-6B8DDF6309E5}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="F1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
       <c r="C2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.1</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>15.67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>19.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>5</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>5</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <v>9.33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-      <c r="E22">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>4</v>
-      </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-      <c r="E23">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>5</v>
-      </c>
-      <c r="B24">
-        <v>4</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>4</v>
-      </c>
-      <c r="B25">
-        <v>5</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>5</v>
-      </c>
-      <c r="E25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>3</v>
-      </c>
-      <c r="B26">
-        <v>4</v>
-      </c>
-      <c r="C26">
-        <v>5</v>
-      </c>
-      <c r="D26">
-        <v>4</v>
-      </c>
-      <c r="E26">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>3</v>
-      </c>
-      <c r="B27">
-        <v>4</v>
-      </c>
-      <c r="C27">
-        <v>5</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>5</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28">
-        <v>4</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29">
-        <v>5</v>
-      </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>11</v>
-      </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30">
-        <v>5</v>
-      </c>
-      <c r="E30">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>5</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31">
-        <v>4</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>3</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32">
-        <v>4</v>
-      </c>
-      <c r="E32">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>4</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>2</v>
-      </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="C34">
-        <v>5</v>
-      </c>
-      <c r="D34">
-        <v>5</v>
-      </c>
-      <c r="E34">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35">
-        <v>5</v>
-      </c>
-      <c r="C35">
-        <v>3</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>3</v>
-      </c>
-      <c r="C36">
-        <v>4</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>5</v>
-      </c>
-      <c r="B37">
-        <v>5</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38">
-        <v>4</v>
-      </c>
-      <c r="C38">
-        <v>5</v>
-      </c>
-      <c r="D38">
-        <v>3</v>
-      </c>
-      <c r="E38">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>4</v>
-      </c>
-      <c r="B39">
-        <v>5</v>
-      </c>
-      <c r="C39">
-        <v>5</v>
-      </c>
-      <c r="E39">
-        <v>10.67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>4</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>13.33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>2</v>
-      </c>
-      <c r="B41">
-        <v>4</v>
-      </c>
-      <c r="C41">
-        <v>4</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>2</v>
-      </c>
-      <c r="B42">
-        <v>4</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42">
-        <v>10.67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>3</v>
-      </c>
-      <c r="B43">
-        <v>2</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>3</v>
-      </c>
-      <c r="E43">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>5</v>
-      </c>
-      <c r="B44">
-        <v>3</v>
-      </c>
-      <c r="C44">
-        <v>4</v>
-      </c>
-      <c r="D44">
-        <v>3</v>
-      </c>
-      <c r="E44">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>3</v>
-      </c>
-      <c r="B45">
-        <v>2</v>
-      </c>
-      <c r="C45">
-        <v>4</v>
-      </c>
-      <c r="D45">
-        <v>4</v>
-      </c>
-      <c r="E45">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>4</v>
-      </c>
-      <c r="B46">
-        <v>5</v>
-      </c>
-      <c r="C46">
-        <v>3</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>2</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>2</v>
-      </c>
-      <c r="D47">
-        <v>5</v>
-      </c>
-      <c r="E47">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>5</v>
-      </c>
-      <c r="B48">
-        <v>4</v>
-      </c>
-      <c r="C48">
-        <v>2</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>5</v>
-      </c>
-      <c r="B49">
-        <v>5</v>
-      </c>
-      <c r="C49">
-        <v>5</v>
-      </c>
-      <c r="D49">
-        <v>3</v>
-      </c>
-      <c r="E49">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>2</v>
-      </c>
-      <c r="B50">
-        <v>4</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>2</v>
-      </c>
-      <c r="B51">
-        <v>3</v>
-      </c>
-      <c r="C51">
-        <v>3</v>
-      </c>
-      <c r="D51">
-        <v>3</v>
-      </c>
-      <c r="E51">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52">
         <v>4</v>
       </c>
       <c r="E52">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>17.399999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/SF-36/Practice SF-36 data.xlsx
+++ b/SF-36/Practice SF-36 data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/CSU Classes/Consulting/SF-36/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{75DC3B79-C7D3-4423-8FA4-FEB85AFE3B14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B84C621C-5D54-44E7-822D-8C1D316D315F}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{75DC3B79-C7D3-4423-8FA4-FEB85AFE3B14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E535F62A-B647-491C-B1A0-48F049FEBE68}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Practice SF-36 data" sheetId="1" r:id="rId1"/>
@@ -1350,13 +1350,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BQ52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AK1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>111</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>113</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>115</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>116</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>117</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>118</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>119</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>120</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>121</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>122</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>123</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>124</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>125</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>126</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>127</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>128</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>129</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>130</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>131</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>132</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>133</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>134</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>135</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>136</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>137</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>138</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>139</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>140</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>141</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>142</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>143</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>144</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>145</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>146</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>147</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>148</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>149</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>150</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>151</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>152</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>153</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>154</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>155</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>156</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>157</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>158</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>159</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>160</v>
       </c>
@@ -6972,7 +6972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>161</v>
       </c>
@@ -7098,12 +7098,12 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="110.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="110.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -7163,7 +7163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -7303,7 +7303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -7323,7 +7323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -7583,7 +7583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -7643,7 +7643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -7852,13 +7852,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38279A1-2219-43F5-8F1B-6B8DDF6309E5}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -7878,7 +7878,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -7898,7 +7898,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7918,7 +7918,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5</v>
       </c>
@@ -7938,7 +7938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -7958,7 +7958,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.1</v>
       </c>
@@ -7995,10 +7995,10 @@
         <v>4</v>
       </c>
       <c r="F7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -8018,7 +8018,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>15.67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4</v>
       </c>
@@ -8160,7 +8160,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4</v>
       </c>
@@ -8220,7 +8220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>4</v>
       </c>
@@ -8240,7 +8240,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
@@ -8260,7 +8260,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5</v>
       </c>
@@ -8391,7 +8391,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>5</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>4</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3</v>
       </c>
@@ -8451,7 +8451,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>5</v>
       </c>
@@ -8471,7 +8471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4</v>
       </c>
@@ -8491,7 +8491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
@@ -8511,7 +8511,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>19.25</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1</v>
       </c>
@@ -8568,7 +8568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>5</v>
       </c>
@@ -8588,7 +8588,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>1</v>
       </c>
@@ -8602,10 +8602,10 @@
         <v>1</v>
       </c>
       <c r="F39">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2</v>
       </c>
@@ -8645,7 +8645,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>5</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>4</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4</v>
       </c>
@@ -8725,7 +8725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>4</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>3</v>
       </c>
@@ -8765,7 +8765,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>5</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>3</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2</v>
       </c>

--- a/SF-36/Practice SF-36 data.xlsx
+++ b/SF-36/Practice SF-36 data.xlsx
@@ -1350,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BQ52"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AK1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7095,7 +7095,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7853,7 +7853,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SF-36/Practice SF-36 data.xlsx
+++ b/SF-36/Practice SF-36 data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/CSU Classes/Consulting/SF-36/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{75DC3B79-C7D3-4423-8FA4-FEB85AFE3B14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E535F62A-B647-491C-B1A0-48F049FEBE68}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{75DC3B79-C7D3-4423-8FA4-FEB85AFE3B14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{63AEB31E-D780-4404-8B0E-A3DD9364DAFB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Practice SF-36 data" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="Example and Ranges" sheetId="2" r:id="rId2"/>
     <sheet name="Testing" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -1350,7 +1350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BQ52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -7852,7 +7852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38279A1-2219-43F5-8F1B-6B8DDF6309E5}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
